--- a/data/trans_orig/IP3102-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3102-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{065BE810-2D53-49E7-9839-22E1D2F2F5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E80634FF-36B6-4D88-AB27-95996B324B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{75839859-CEDC-44BF-8365-AC84C77AD5E1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{688712DD-62D7-47CB-B66E-3DACB12C0100}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="742">
   <si>
     <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2007 (Tasa respuesta: 93,2%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -91,2173 +91,2179 @@
     <t>7,85%</t>
   </si>
   <si>
-    <t>27,44%</t>
+    <t>26,53%</t>
   </si>
   <si>
     <t>13,61%</t>
   </si>
   <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>3 o 4 veces a la semana</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
     <t>3,57%</t>
   </si>
   <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>3 o 4 veces a la semana</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2012 (Tasa respuesta: 91,52%)</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
   </si>
   <si>
     <t>40,48%</t>
   </si>
   <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2016 (Tasa respuesta: 92,52%)</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>28,26%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
   </si>
   <si>
     <t>24,34%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>14,67%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2012 (Tasa respuesta: 91,52%)</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
   </si>
   <si>
     <t>21,92%</t>
   </si>
   <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
   </si>
   <si>
     <t>20,15%</t>
   </si>
   <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2015 (Tasa respuesta: 92,52%)</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
   </si>
   <si>
     <t>32,4%</t>
   </si>
   <si>
-    <t>29,86%</t>
+    <t>29,52%</t>
   </si>
   <si>
     <t>35,51%</t>
   </si>
   <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
   </si>
 </sst>
 </file>
@@ -2669,7 +2675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49CD821-944F-42A9-9B03-B10A3A54B1BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BDC316-1AC6-4520-9150-0A7EC19F4055}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3885,13 +3891,13 @@
         <v>28500</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>91</v>
@@ -3900,13 +3906,13 @@
         <v>57728</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,13 +3927,13 @@
         <v>21114</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -3936,13 +3942,13 @@
         <v>29125</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>86</v>
@@ -3951,13 +3957,13 @@
         <v>50239</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,7 +4019,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4025,13 +4031,13 @@
         <v>11551</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -4040,13 +4046,13 @@
         <v>11516</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -4055,13 +4061,13 @@
         <v>23067</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4082,13 @@
         <v>36305</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>50</v>
@@ -4091,13 +4097,13 @@
         <v>38706</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>103</v>
@@ -4106,13 +4112,13 @@
         <v>75010</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4133,13 @@
         <v>71887</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>106</v>
@@ -4142,13 +4148,13 @@
         <v>81123</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>213</v>
@@ -4157,13 +4163,13 @@
         <v>153010</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4184,13 @@
         <v>48099</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>58</v>
@@ -4193,10 +4199,10 @@
         <v>44050</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>223</v>
@@ -4348,13 +4354,13 @@
         <v>41861</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
       <c r="M34" s="7">
         <v>128</v>
@@ -4363,13 +4369,13 @@
         <v>85604</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4390,13 @@
         <v>146403</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>163</v>
@@ -4399,13 +4405,13 @@
         <v>111157</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>383</v>
@@ -4414,13 +4420,13 @@
         <v>257559</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4441,13 @@
         <v>253220</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H36" s="7">
         <v>364</v>
@@ -4450,13 +4456,13 @@
         <v>246939</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M36" s="7">
         <v>744</v>
@@ -4465,13 +4471,13 @@
         <v>500158</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>259</v>
+        <v>128</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4492,13 @@
         <v>145441</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>222</v>
@@ -4501,13 +4507,13 @@
         <v>148424</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M37" s="7">
         <v>440</v>
@@ -4516,13 +4522,13 @@
         <v>293864</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,13 +4543,13 @@
         <v>83414</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H38" s="7">
         <v>138</v>
@@ -4552,13 +4558,13 @@
         <v>88053</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M38" s="7">
         <v>266</v>
@@ -4567,13 +4573,13 @@
         <v>171468</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,7 +4635,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4650,7 +4656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3E98AE-385C-44FB-9E35-ADEF6AEE5A43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E8E1BE-8788-41A0-B37C-3D8C9B5C1DCA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4667,7 +4673,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4774,13 +4780,13 @@
         <v>1155</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4795,7 +4801,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4804,13 +4810,13 @@
         <v>1155</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4831,13 @@
         <v>3759</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4840,13 +4846,13 @@
         <v>5170</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4855,13 +4861,13 @@
         <v>8928</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4882,13 @@
         <v>7608</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4891,13 +4897,13 @@
         <v>6695</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -4906,13 +4912,13 @@
         <v>14303</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,13 +4933,13 @@
         <v>7159</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4942,13 +4948,13 @@
         <v>4753</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -4957,13 +4963,13 @@
         <v>11913</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,13 +4984,13 @@
         <v>4021</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4993,13 +4999,13 @@
         <v>4905</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -5008,13 +5014,13 @@
         <v>8925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5088,13 @@
         <v>2683</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5097,13 +5103,13 @@
         <v>3773</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>320</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -5112,13 +5118,13 @@
         <v>6456</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>322</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>93</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,7 +5139,7 @@
         <v>33512</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>325</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>326</v>
@@ -5151,10 +5157,10 @@
         <v>328</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>146</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M11" s="7">
         <v>77</v>
@@ -5163,13 +5169,13 @@
         <v>56495</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5190,13 @@
         <v>35399</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H12" s="7">
         <v>49</v>
@@ -5199,13 +5205,13 @@
         <v>35236</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M12" s="7">
         <v>99</v>
@@ -5214,13 +5220,13 @@
         <v>70635</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5241,13 @@
         <v>19182</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -5250,13 +5256,13 @@
         <v>19128</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>204</v>
+        <v>348</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -5265,13 +5271,13 @@
         <v>38311</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5292,13 @@
         <v>27224</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -5301,13 +5307,13 @@
         <v>29916</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>81</v>
@@ -5316,13 +5322,13 @@
         <v>57140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5396,13 @@
         <v>12055</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -5405,13 +5411,13 @@
         <v>10890</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -5420,13 +5426,13 @@
         <v>22945</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5447,13 @@
         <v>49817</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -5456,13 +5462,13 @@
         <v>38993</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M17" s="7">
         <v>130</v>
@@ -5471,13 +5477,13 @@
         <v>88810</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5498,13 @@
         <v>60980</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H18" s="7">
         <v>83</v>
@@ -5507,13 +5513,13 @@
         <v>54896</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M18" s="7">
         <v>172</v>
@@ -5525,10 +5531,10 @@
         <v>35</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5549,13 @@
         <v>33530</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>388</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -5558,13 +5564,13 @@
         <v>35067</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>386</v>
+        <v>160</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>387</v>
+        <v>312</v>
       </c>
       <c r="M19" s="7">
         <v>105</v>
@@ -5573,13 +5579,13 @@
         <v>68597</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>389</v>
+        <v>268</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5600,13 @@
         <v>46991</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H20" s="7">
         <v>81</v>
@@ -5609,13 +5615,13 @@
         <v>50450</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>326</v>
+        <v>397</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="M20" s="7">
         <v>147</v>
@@ -5624,13 +5630,13 @@
         <v>97442</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>398</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5704,13 @@
         <v>4797</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>401</v>
+        <v>195</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -5749,13 +5755,13 @@
         <v>38826</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>409</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>410</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>47</v>
@@ -5764,13 +5770,13 @@
         <v>30303</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>413</v>
+        <v>177</v>
       </c>
       <c r="M23" s="7">
         <v>106</v>
@@ -5779,13 +5785,13 @@
         <v>69129</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5806,13 @@
         <v>46667</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H24" s="7">
         <v>74</v>
@@ -5815,13 +5821,13 @@
         <v>48297</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M24" s="7">
         <v>148</v>
@@ -5830,13 +5836,13 @@
         <v>94964</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5857,13 @@
         <v>24066</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -5866,13 +5872,13 @@
         <v>19044</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -5881,13 +5887,13 @@
         <v>43110</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>431</v>
+        <v>329</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>48</v>
+        <v>429</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,13 +5908,13 @@
         <v>34781</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H26" s="7">
         <v>60</v>
@@ -5917,13 +5923,13 @@
         <v>37719</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M26" s="7">
         <v>112</v>
@@ -5932,13 +5938,13 @@
         <v>72500</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>427</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,7 +6000,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6006,13 +6012,13 @@
         <v>5737</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -6021,13 +6027,13 @@
         <v>3910</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="M28" s="7">
         <v>13</v>
@@ -6036,13 +6042,13 @@
         <v>9646</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,13 +6063,13 @@
         <v>25170</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>347</v>
+        <v>447</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -6072,13 +6078,13 @@
         <v>27448</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>452</v>
+        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>71</v>
@@ -6087,13 +6093,13 @@
         <v>52619</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>453</v>
+        <v>115</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,13 +6114,13 @@
         <v>61927</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H30" s="7">
         <v>81</v>
@@ -6123,13 +6129,13 @@
         <v>61466</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M30" s="7">
         <v>170</v>
@@ -6138,13 +6144,13 @@
         <v>123393</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>47</v>
+        <v>460</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6165,13 @@
         <v>31345</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="H31" s="7">
         <v>43</v>
@@ -6174,13 +6180,13 @@
         <v>33761</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>466</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>467</v>
+        <v>141</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M31" s="7">
         <v>84</v>
@@ -6189,13 +6195,13 @@
         <v>65107</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,13 +6216,13 @@
         <v>67027</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>332</v>
+        <v>470</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H32" s="7">
         <v>83</v>
@@ -6225,13 +6231,13 @@
         <v>63635</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M32" s="7">
         <v>170</v>
@@ -6240,10 +6246,10 @@
         <v>130662</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>477</v>
@@ -6258,7 +6264,7 @@
         <v>260</v>
       </c>
       <c r="D33" s="7">
-        <v>191207</v>
+        <v>191206</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>54</v>
@@ -6368,10 +6374,10 @@
         <v>487</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H35" s="7">
         <v>177</v>
@@ -6380,13 +6386,13 @@
         <v>124897</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M35" s="7">
         <v>394</v>
@@ -6395,13 +6401,13 @@
         <v>275981</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>268</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,13 +6422,13 @@
         <v>212581</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H36" s="7">
         <v>295</v>
@@ -6431,13 +6437,13 @@
         <v>206590</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M36" s="7">
         <v>606</v>
@@ -6446,13 +6452,13 @@
         <v>419171</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>501</v>
+        <v>113</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,13 +6473,13 @@
         <v>115283</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H37" s="7">
         <v>162</v>
@@ -6482,28 +6488,28 @@
         <v>111754</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>112</v>
+        <v>509</v>
       </c>
       <c r="M37" s="7">
         <v>327</v>
       </c>
       <c r="N37" s="7">
-        <v>227036</v>
+        <v>227037</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,13 +6524,13 @@
         <v>180044</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H38" s="7">
         <v>272</v>
@@ -6533,13 +6539,13 @@
         <v>186625</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="M38" s="7">
         <v>519</v>
@@ -6548,13 +6554,13 @@
         <v>366669</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>434</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,7 +6602,7 @@
         <v>1921</v>
       </c>
       <c r="N39" s="7">
-        <v>1339336</v>
+        <v>1339337</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>54</v>
@@ -6610,7 +6616,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -6631,7 +6637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9FD6C3-A690-43E1-90B2-324035750C12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487D9374-2E2C-457B-B822-A67BAADF2F33}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6648,7 +6654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6755,13 +6761,13 @@
         <v>1650</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6770,13 +6776,13 @@
         <v>657</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>18</v>
+        <v>527</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6785,13 +6791,13 @@
         <v>2306</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>523</v>
+        <v>319</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6806,13 +6812,13 @@
         <v>2754</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6821,13 +6827,13 @@
         <v>5102</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -6836,13 +6842,13 @@
         <v>7857</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6857,13 +6863,13 @@
         <v>6835</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -6872,13 +6878,13 @@
         <v>5442</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>142</v>
+        <v>543</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -6887,13 +6893,13 @@
         <v>12277</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6908,13 +6914,13 @@
         <v>4987</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -6923,13 +6929,13 @@
         <v>3632</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -6938,13 +6944,13 @@
         <v>8619</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6959,13 +6965,13 @@
         <v>6497</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>552</v>
+        <v>159</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -6974,13 +6980,13 @@
         <v>6650</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -6989,13 +6995,13 @@
         <v>13147</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>559</v>
+        <v>353</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>307</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,13 +7069,13 @@
         <v>6102</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>560</v>
+        <v>103</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>228</v>
+        <v>565</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -7078,13 +7084,13 @@
         <v>3331</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -7093,13 +7099,13 @@
         <v>9433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7114,13 +7120,13 @@
         <v>10533</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -7129,13 +7135,13 @@
         <v>13178</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>571</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -7144,13 +7150,13 @@
         <v>23712</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7165,13 +7171,13 @@
         <v>21054</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>577</v>
+        <v>525</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -7180,13 +7186,13 @@
         <v>29689</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M12" s="7">
         <v>72</v>
@@ -7195,13 +7201,13 @@
         <v>50743</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>505</v>
+        <v>586</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7216,13 +7222,13 @@
         <v>36384</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>219</v>
+        <v>589</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -7231,13 +7237,13 @@
         <v>24938</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>589</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -7246,13 +7252,13 @@
         <v>61322</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>593</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7267,13 +7273,13 @@
         <v>40615</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="H14" s="7">
         <v>45</v>
@@ -7282,13 +7288,13 @@
         <v>31175</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>528</v>
+        <v>599</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>600</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>99</v>
@@ -7297,13 +7303,13 @@
         <v>71790</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>597</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7374,10 +7380,10 @@
         <v>484</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -7386,13 +7392,13 @@
         <v>8097</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>520</v>
+        <v>317</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -7401,13 +7407,13 @@
         <v>15992</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>602</v>
+        <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7422,13 +7428,13 @@
         <v>40091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>334</v>
+        <v>610</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -7437,13 +7443,13 @@
         <v>40117</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -7452,13 +7458,13 @@
         <v>80207</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>455</v>
+        <v>614</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7473,13 +7479,13 @@
         <v>47425</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="H18" s="7">
         <v>74</v>
@@ -7488,13 +7494,13 @@
         <v>46911</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="M18" s="7">
         <v>145</v>
@@ -7503,13 +7509,13 @@
         <v>94336</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7524,13 +7530,13 @@
         <v>44878</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>619</v>
+        <v>510</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -7539,13 +7545,13 @@
         <v>40363</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>627</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>622</v>
+        <v>341</v>
       </c>
       <c r="M19" s="7">
         <v>133</v>
@@ -7554,13 +7560,13 @@
         <v>85241</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>337</v>
+        <v>630</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7575,13 +7581,13 @@
         <v>69015</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>627</v>
+        <v>477</v>
       </c>
       <c r="H20" s="7">
         <v>96</v>
@@ -7590,13 +7596,13 @@
         <v>57947</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="M20" s="7">
         <v>199</v>
@@ -7605,13 +7611,13 @@
         <v>126962</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,13 +7685,13 @@
         <v>13081</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>321</v>
+        <v>640</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -7694,13 +7700,13 @@
         <v>9221</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>636</v>
+        <v>365</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -7709,13 +7715,13 @@
         <v>22302</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>645</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7730,13 +7736,13 @@
         <v>22575</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>271</v>
+        <v>648</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -7745,13 +7751,13 @@
         <v>22504</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>644</v>
+        <v>71</v>
       </c>
       <c r="M23" s="7">
         <v>71</v>
@@ -7760,13 +7766,13 @@
         <v>45079</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>104</v>
+        <v>653</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,13 +7787,13 @@
         <v>48006</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="H24" s="7">
         <v>64</v>
@@ -7796,13 +7802,13 @@
         <v>40786</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="M24" s="7">
         <v>134</v>
@@ -7811,13 +7817,13 @@
         <v>88792</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7832,13 +7838,13 @@
         <v>25850</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>657</v>
+        <v>424</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>658</v>
+        <v>464</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -7847,13 +7853,13 @@
         <v>29899</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>374</v>
+        <v>667</v>
       </c>
       <c r="M25" s="7">
         <v>87</v>
@@ -7862,13 +7868,13 @@
         <v>55748</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>605</v>
+        <v>669</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7883,13 +7889,13 @@
         <v>48829</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>663</v>
+        <v>489</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -7898,13 +7904,13 @@
         <v>42088</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>665</v>
+        <v>113</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>667</v>
+        <v>213</v>
       </c>
       <c r="M26" s="7">
         <v>147</v>
@@ -7913,13 +7919,13 @@
         <v>90917</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>669</v>
+        <v>612</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>670</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7975,7 +7981,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7987,13 +7993,13 @@
         <v>10558</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>671</v>
+        <v>407</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>533</v>
+        <v>675</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -8002,13 +8008,13 @@
         <v>6739</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
@@ -8017,13 +8023,13 @@
         <v>17297</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>399</v>
+        <v>679</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>106</v>
+        <v>680</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,13 +8044,13 @@
         <v>23768</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
@@ -8053,13 +8059,13 @@
         <v>29467</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="M29" s="7">
         <v>72</v>
@@ -8068,13 +8074,13 @@
         <v>53235</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>94</v>
+        <v>687</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,13 +8095,13 @@
         <v>48535</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>684</v>
+        <v>612</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>686</v>
+        <v>499</v>
       </c>
       <c r="H30" s="7">
         <v>52</v>
@@ -8104,13 +8110,13 @@
         <v>39404</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>687</v>
+        <v>408</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>656</v>
+        <v>691</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="M30" s="7">
         <v>119</v>
@@ -8119,13 +8125,13 @@
         <v>87939</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>246</v>
+        <v>694</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8140,13 +8146,13 @@
         <v>45385</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="H31" s="7">
         <v>64</v>
@@ -8155,13 +8161,13 @@
         <v>46850</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>452</v>
+        <v>613</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="M31" s="7">
         <v>128</v>
@@ -8170,13 +8176,13 @@
         <v>92235</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>70</v>
+        <v>701</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>697</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8191,13 +8197,13 @@
         <v>59554</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>410</v>
+        <v>702</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>669</v>
+        <v>703</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>698</v>
+        <v>416</v>
       </c>
       <c r="H32" s="7">
         <v>94</v>
@@ -8206,13 +8212,13 @@
         <v>68652</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>699</v>
+        <v>253</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="M32" s="7">
         <v>178</v>
@@ -8221,13 +8227,13 @@
         <v>128206</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>496</v>
+        <v>706</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>477</v>
+        <v>708</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8295,13 +8301,13 @@
         <v>39285</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>442</v>
+        <v>709</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>364</v>
+        <v>710</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="H34" s="7">
         <v>43</v>
@@ -8310,13 +8316,13 @@
         <v>28044</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>357</v>
+        <v>96</v>
       </c>
       <c r="M34" s="7">
         <v>100</v>
@@ -8328,10 +8334,10 @@
         <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>199</v>
+        <v>715</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8346,13 +8352,13 @@
         <v>99721</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>708</v>
+        <v>233</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="H35" s="7">
         <v>161</v>
@@ -8361,13 +8367,13 @@
         <v>110368</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="M35" s="7">
         <v>303</v>
@@ -8376,13 +8382,13 @@
         <v>210089</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>712</v>
+        <v>666</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8397,13 +8403,13 @@
         <v>171854</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="H36" s="7">
         <v>238</v>
@@ -8412,13 +8418,13 @@
         <v>162233</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="M36" s="7">
         <v>483</v>
@@ -8427,13 +8433,13 @@
         <v>334087</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>723</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8448,13 +8454,13 @@
         <v>157484</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>726</v>
+        <v>375</v>
       </c>
       <c r="H37" s="7">
         <v>222</v>
@@ -8463,13 +8469,13 @@
         <v>145682</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="M37" s="7">
         <v>443</v>
@@ -8478,13 +8484,13 @@
         <v>303166</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>730</v>
+        <v>495</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>732</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8499,13 +8505,13 @@
         <v>224509</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="H38" s="7">
         <v>315</v>
@@ -8514,13 +8520,13 @@
         <v>206513</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>180</v>
+        <v>739</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="M38" s="7">
         <v>638</v>
@@ -8529,13 +8535,13 @@
         <v>431022</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>737</v>
+        <v>290</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>739</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8591,7 +8597,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
